--- a/data/spx/MAA US Equity.xlsx
+++ b/data/spx/MAA US Equity.xlsx
@@ -779,6 +779,9 @@
     <x:t xml:space="preserve">T12M</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">P/E</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Average of Absolute Values</x:t>
   </x:si>
   <x:si>
@@ -818,9 +821,6 @@
     <x:t xml:space="preserve">09/25</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">~2.160</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">07/30/2025</x:t>
   </x:si>
   <x:si>
@@ -830,13 +830,7 @@
     <x:t xml:space="preserve">06/25</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">0.09%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.130</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.94%</x:t>
+    <x:t xml:space="preserve">-0.33%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-4.27%</x:t>
@@ -851,10 +845,7 @@
     <x:t xml:space="preserve">03/25</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1.66%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.85%</x:t>
+    <x:t xml:space="preserve">69.98%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1.52%</x:t>
@@ -869,13 +860,7 @@
     <x:t xml:space="preserve">12/24</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">-0.18%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.230</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.00%</x:t>
+    <x:t xml:space="preserve">40.32%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1.27%</x:t>
@@ -890,10 +875,7 @@
     <x:t xml:space="preserve">09/24</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1.70%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.31%</x:t>
+    <x:t xml:space="preserve">-6.49%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-0.53%</x:t>
@@ -908,492 +890,384 @@
     <x:t xml:space="preserve">06/24</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">-16.50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4.75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05/01/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15.97%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.81%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">02/07/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">24.21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-0.56%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/25/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-20.00%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-4.37%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07/26/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-1.51%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-2.27%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04/26/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/23</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-6.60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2.66%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">02/01/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">23.25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3.37%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/26/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-14.15%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1.56%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07/27/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">57.99%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4.54%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04/27/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9.07%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1.81%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">02/02/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">65.98%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.47%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/27/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8.79%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1.10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07/28/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">37.80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2.83%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04/28/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-29.75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">02/03/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17.84%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/28/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-3.35%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.98%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07/29/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">14.21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3.16%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05/06/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-46.80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3.40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01/29/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-12.64%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.67%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/30/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">24.23%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1.63%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07/31/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4.89%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2.46%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05/01/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-1.59%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.29%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01/30/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q4 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12/18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4.78%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-2.74%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10/31/2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q3 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">09/18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">21.01%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0.49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">08/01/2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q2 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06/18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13.77%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-1.20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05/02/2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Q1 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03/18</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">0.86%</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">~2.190</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.37%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">05/01/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/24</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.200</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.91%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.81%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">02/07/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.290</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.31%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-0.56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/25/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-5.35%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.260</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-4.42%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-4.37%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07/26/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">5.71%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">5.75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-2.27%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">04/26/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/23</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.42%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.220</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.70%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.66%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">02/01/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.38%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.270</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.37%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/26/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.19%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~2.070</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">5.80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07/27/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.970</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.54%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.54%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">04/27/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/22</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.86%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.14%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.81%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">02/02/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.99%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/27/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.43%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.680</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">5.95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07/28/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.610</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.97%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.83%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">04/28/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/21</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.590</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">02/03/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/28/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.01%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.98%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07/29/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.16%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">05/06/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.44%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.89%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">01/29/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.69%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.630</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.07%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.67%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/30/2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10.90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.550</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10.97%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1.63%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07/31/2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.510</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.97%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.46%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">05/01/2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/19</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.470</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">7.48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.29%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">01/30/2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q4 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-2.74%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">10/31/2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q3 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">09/18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-0.20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.500</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">08/01/2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q2 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06/18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.480</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-1.20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">05/02/2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q1 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03/18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-1.17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.430</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">0.70%</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">-0.27%</x:t>
   </x:si>
   <x:si>
@@ -1406,10 +1280,7 @@
     <x:t xml:space="preserve">12/17</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">~1.450</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.45%</x:t>
+    <x:t xml:space="preserve">19.74%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-3.80%</x:t>
@@ -1424,13 +1295,7 @@
     <x:t xml:space="preserve">09/17</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">2.32%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.440</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.17%</x:t>
+    <x:t xml:space="preserve">23.80%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-4.32%</x:t>
@@ -1445,13 +1310,7 @@
     <x:t xml:space="preserve">06/17</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">2.78%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.410</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4.96%</x:t>
+    <x:t xml:space="preserve">30.31%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">0.65%</x:t>
@@ -1466,10 +1325,7 @@
     <x:t xml:space="preserve">03/17</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">2.24%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.380</x:t>
+    <x:t xml:space="preserve">-31.21%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-2.97%</x:t>
@@ -1484,13 +1340,7 @@
     <x:t xml:space="preserve">12/16</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">-23.85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.490</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-24.16%</x:t>
+    <x:t xml:space="preserve">-29.01%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">4.14%</x:t>
@@ -1505,13 +1355,7 @@
     <x:t xml:space="preserve">09/16</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">0.07%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.460</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.05%</x:t>
+    <x:t xml:space="preserve">-23.81%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">0.41%</x:t>
@@ -1526,10 +1370,7 @@
     <x:t xml:space="preserve">06/16</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1.92%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.47%</x:t>
+    <x:t xml:space="preserve">-9.81%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">0.03%</x:t>
@@ -1544,13 +1385,7 @@
     <x:t xml:space="preserve">03/16</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">2.06%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.390</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.60%</x:t>
+    <x:t xml:space="preserve">-3.93%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1.40%</x:t>
@@ -1565,13 +1400,7 @@
     <x:t xml:space="preserve">12/15</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">3.57%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.330</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">9.02%</x:t>
+    <x:t xml:space="preserve">-13.15%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-5.23%</x:t>
@@ -1586,13 +1415,7 @@
     <x:t xml:space="preserve">09/15</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">3.76%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.300</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">6.15%</x:t>
+    <x:t xml:space="preserve">85.99%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">2.64%</x:t>
@@ -1607,13 +1430,7 @@
     <x:t xml:space="preserve">06/15</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">4.78%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.290</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">5.43%</x:t>
+    <x:t xml:space="preserve">230.72%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">3.73%</x:t>
@@ -1628,10 +1445,7 @@
     <x:t xml:space="preserve">03/15</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1.54%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2.33%</x:t>
+    <x:t xml:space="preserve">59.45%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">-1.45%</x:t>
@@ -1646,16 +1460,7 @@
     <x:t xml:space="preserve">12/14</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">3.04%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.270</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3.94%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-1.51%</x:t>
+    <x:t xml:space="preserve">2.10%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">10/29/2014</x:t>
@@ -1667,10 +1472,7 @@
     <x:t xml:space="preserve">09/14</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">5.79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">~1.210</x:t>
+    <x:t xml:space="preserve">96.92%</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">0.27%</x:t>
@@ -3694,7 +3496,7 @@
     <x:workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Worksheet" sheetId="2" r:id="Rd61e63b3786f45b0"/>
+    <x:sheet name="Worksheet" sheetId="2" r:id="R87d30baef79141c6"/>
   </x:sheets>
   <x:calcPr calcId="145621"/>
 </x:workbook>
@@ -4000,6 +3802,7 @@
     <x:col min="10" max="10" width="10.465714285714286" customWidth="1"/>
     <x:col min="11" max="11" width="10.465714285714286" customWidth="1"/>
     <x:col min="12" max="12" width="10.465714285714286" customWidth="1"/>
+    <x:col min="13" max="13" width="10.465714285714286" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
@@ -4039,108 +3842,121 @@
       <x:c r="L1" s="2" t="s">
         <x:v>258</x:v>
       </x:c>
+      <x:c r="M1" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D3"/>
       <x:c r="E3"/>
       <x:c r="F3"/>
       <x:c r="G3" t="n">
-        <x:v>2.226</x:v>
+        <x:v>1.001</x:v>
       </x:c>
       <x:c r="H3"/>
       <x:c r="I3"/>
       <x:c r="J3"/>
       <x:c r="K3"/>
       <x:c r="L3" t="n">
-        <x:v>8.86</x:v>
+        <x:v>4.00</x:v>
+      </x:c>
+      <x:c r="M3" t="n">
+        <x:v>36.16</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D4"/>
       <x:c r="E4"/>
       <x:c r="F4"/>
       <x:c r="G4" t="n">
-        <x:v>2.235</x:v>
+        <x:v>0.959</x:v>
       </x:c>
       <x:c r="H4"/>
       <x:c r="I4"/>
       <x:c r="J4"/>
       <x:c r="K4"/>
       <x:c r="L4" t="n">
-        <x:v>8.83</x:v>
+        <x:v>3.89</x:v>
+      </x:c>
+      <x:c r="M4" t="n">
+        <x:v>37.19</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D5"/>
       <x:c r="E5"/>
       <x:c r="F5"/>
       <x:c r="G5" t="n">
-        <x:v>2.226</x:v>
+        <x:v>1.043</x:v>
       </x:c>
       <x:c r="H5"/>
       <x:c r="I5"/>
       <x:c r="J5"/>
       <x:c r="K5"/>
       <x:c r="L5" t="n">
-        <x:v>8.80</x:v>
+        <x:v>3.86</x:v>
+      </x:c>
+      <x:c r="M5" t="n">
+        <x:v>37.47</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D6"/>
       <x:c r="E6"/>
       <x:c r="F6"/>
       <x:c r="G6" t="n">
-        <x:v>2.175</x:v>
+        <x:v>0.997</x:v>
       </x:c>
       <x:c r="H6"/>
-      <x:c r="I6" t="s">
-        <x:v>272</x:v>
-      </x:c>
+      <x:c r="I6"/>
       <x:c r="J6"/>
       <x:c r="K6"/>
       <x:c r="L6" t="n">
-        <x:v>8.78</x:v>
+        <x:v>3.78</x:v>
+      </x:c>
+      <x:c r="M6" t="n">
+        <x:v>38.27</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -4155,1782 +3971,1525 @@
       </x:c>
       <x:c r="D7"/>
       <x:c r="E7" t="n">
-        <x:v>2.190</x:v>
+        <x:v>0.888</x:v>
       </x:c>
       <x:c r="F7" t="n">
-        <x:v>2.150</x:v>
+        <x:v>0.920</x:v>
       </x:c>
       <x:c r="G7" t="n">
-        <x:v>2.148</x:v>
+        <x:v>0.923</x:v>
       </x:c>
       <x:c r="H7" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="I7" t="s">
+      <x:c r="I7"/>
+      <x:c r="J7"/>
+      <x:c r="K7" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="J7" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="K7" t="s">
-        <x:v>279</x:v>
-      </x:c>
       <x:c r="L7" t="n">
-        <x:v>8.71</x:v>
+        <x:v>3.71</x:v>
+      </x:c>
+      <x:c r="M7" t="n">
+        <x:v>39.89</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>282</x:v>
       </x:c>
       <x:c r="D8"/>
       <x:c r="E8" t="n">
-        <x:v>2.210</x:v>
+        <x:v>0.930</x:v>
       </x:c>
       <x:c r="F8" t="n">
-        <x:v>2.200</x:v>
+        <x:v>1.540</x:v>
       </x:c>
       <x:c r="G8" t="n">
-        <x:v>2.164</x:v>
+        <x:v>0.906</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="I8" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="J8" t="s">
-        <x:v>284</x:v>
-      </x:c>
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="I8"/>
+      <x:c r="J8"/>
       <x:c r="K8" t="s">
-        <x:v>285</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="L8" t="n">
-        <x:v>8.58</x:v>
+        <x:v>3.77</x:v>
+      </x:c>
+      <x:c r="M8" t="n">
+        <x:v>44.45</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>286</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>287</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>288</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D9"/>
       <x:c r="E9" t="n">
-        <x:v>2.210</x:v>
+        <x:v>0.963</x:v>
       </x:c>
       <x:c r="F9" t="n">
-        <x:v>2.230</x:v>
+        <x:v>1.420</x:v>
       </x:c>
       <x:c r="G9" t="n">
-        <x:v>2.234</x:v>
+        <x:v>1.012</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="I9" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="J9" t="s">
-        <x:v>291</x:v>
-      </x:c>
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="I9"/>
+      <x:c r="J9"/>
       <x:c r="K9" t="s">
-        <x:v>292</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="L9" t="n">
-        <x:v>8.78</x:v>
+        <x:v>4.02</x:v>
+      </x:c>
+      <x:c r="M9" t="n">
+        <x:v>38.45</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>293</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>294</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>295</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D10"/>
       <x:c r="E10" t="n">
-        <x:v>2.100</x:v>
+        <x:v>0.929</x:v>
       </x:c>
       <x:c r="F10" t="n">
-        <x:v>2.210</x:v>
+        <x:v>0.980</x:v>
       </x:c>
       <x:c r="G10" t="n">
-        <x:v>2.173</x:v>
+        <x:v>1.048</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>296</x:v>
-      </x:c>
-      <x:c r="I10" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="J10" t="s">
-        <x:v>297</x:v>
-      </x:c>
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="I10"/>
+      <x:c r="J10"/>
       <x:c r="K10" t="s">
-        <x:v>298</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="L10" t="n">
-        <x:v>9.10</x:v>
+        <x:v>4.40</x:v>
+      </x:c>
+      <x:c r="M10" t="n">
+        <x:v>36.11</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>299</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>300</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>301</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D11"/>
       <x:c r="E11" t="n">
-        <x:v>2.060</x:v>
+        <x:v>0.944</x:v>
       </x:c>
       <x:c r="F11" t="n">
-        <x:v>2.220</x:v>
+        <x:v>0.860</x:v>
       </x:c>
       <x:c r="G11" t="n">
-        <x:v>2.201</x:v>
+        <x:v>1.030</x:v>
       </x:c>
       <x:c r="H11" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="I11" t="s">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="J11" t="s">
-        <x:v>304</x:v>
-      </x:c>
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="I11"/>
+      <x:c r="J11"/>
       <x:c r="K11" t="s">
-        <x:v>305</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="L11" t="n">
-        <x:v>9.16</x:v>
+        <x:v>4.41</x:v>
+      </x:c>
+      <x:c r="M11" t="n">
+        <x:v>32.34</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>306</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>307</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>308</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D12"/>
       <x:c r="E12" t="n">
-        <x:v>2.410</x:v>
+        <x:v>1.181</x:v>
       </x:c>
       <x:c r="F12" t="n">
-        <x:v>2.220</x:v>
+        <x:v>1.220</x:v>
       </x:c>
       <x:c r="G12" t="n">
-        <x:v>2.224</x:v>
+        <x:v>1.052</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="I12" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="J12" t="s">
-        <x:v>310</x:v>
-      </x:c>
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="I12"/>
+      <x:c r="J12"/>
       <x:c r="K12" t="s">
-        <x:v>311</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="L12" t="n">
-        <x:v>9.49</x:v>
+        <x:v>4.70</x:v>
+      </x:c>
+      <x:c r="M12" t="n">
+        <x:v>28.00</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>312</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>313</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>314</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D13"/>
       <x:c r="E13" t="n">
-        <x:v>2.530</x:v>
+        <x:v>1.347</x:v>
       </x:c>
       <x:c r="F13" t="n">
-        <x:v>2.320</x:v>
+        <x:v>1.370</x:v>
       </x:c>
       <x:c r="G13" t="n">
-        <x:v>2.306</x:v>
+        <x:v>1.103</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="I13" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="J13" t="s">
-        <x:v>317</x:v>
-      </x:c>
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="I13"/>
+      <x:c r="J13"/>
       <x:c r="K13" t="s">
-        <x:v>318</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="L13" t="n">
-        <x:v>9.39</x:v>
+        <x:v>4.68</x:v>
+      </x:c>
+      <x:c r="M13" t="n">
+        <x:v>28.73</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="s">
-        <x:v>319</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>320</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>321</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D14"/>
       <x:c r="E14" t="n">
-        <x:v>2.160</x:v>
+        <x:v>0.944</x:v>
       </x:c>
       <x:c r="F14" t="n">
-        <x:v>2.160</x:v>
+        <x:v>0.940</x:v>
       </x:c>
       <x:c r="G14" t="n">
-        <x:v>2.282</x:v>
+        <x:v>1.175</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="I14" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="J14" t="s">
-        <x:v>324</x:v>
-      </x:c>
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="I14"/>
+      <x:c r="J14"/>
       <x:c r="K14" t="s">
-        <x:v>325</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="L14" t="n">
-        <x:v>8.98</x:v>
+        <x:v>4.35</x:v>
+      </x:c>
+      <x:c r="M14" t="n">
+        <x:v>29.57</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="s">
-        <x:v>326</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>327</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>328</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D15"/>
       <x:c r="E15" t="n">
-        <x:v>2.390</x:v>
+        <x:v>1.228</x:v>
       </x:c>
       <x:c r="F15" t="n">
-        <x:v>2.390</x:v>
+        <x:v>1.240</x:v>
       </x:c>
       <x:c r="G15" t="n">
-        <x:v>2.261</x:v>
+        <x:v>1.259</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>329</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="J15" t="s">
-        <x:v>330</x:v>
-      </x:c>
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="I15"/>
+      <x:c r="J15"/>
       <x:c r="K15" t="s">
-        <x:v>331</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="L15" t="n">
-        <x:v>9.01</x:v>
+        <x:v>4.40</x:v>
+      </x:c>
+      <x:c r="M15" t="n">
+        <x:v>34.51</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="s">
-        <x:v>332</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>333</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>334</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D16"/>
       <x:c r="E16" t="n">
-        <x:v>2.310</x:v>
+        <x:v>1.164</x:v>
       </x:c>
       <x:c r="F16" t="n">
-        <x:v>2.280</x:v>
+        <x:v>1.160</x:v>
       </x:c>
       <x:c r="G16" t="n">
-        <x:v>2.248</x:v>
+        <x:v>1.242</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="I16" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="J16" t="s">
-        <x:v>337</x:v>
-      </x:c>
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="I16"/>
+      <x:c r="J16"/>
       <x:c r="K16" t="s">
-        <x:v>338</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="L16" t="n">
-        <x:v>8.44</x:v>
+        <x:v>3.71</x:v>
+      </x:c>
+      <x:c r="M16" t="n">
+        <x:v>40.71</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="s">
-        <x:v>339</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>340</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>341</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D17"/>
       <x:c r="E17" t="n">
-        <x:v>2.120</x:v>
+        <x:v>1.015</x:v>
       </x:c>
       <x:c r="F17" t="n">
-        <x:v>2.320</x:v>
+        <x:v>1.670</x:v>
       </x:c>
       <x:c r="G17" t="n">
-        <x:v>2.266</x:v>
+        <x:v>1.355</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="I17" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="J17" t="s">
-        <x:v>344</x:v>
-      </x:c>
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="I17"/>
+      <x:c r="J17"/>
       <x:c r="K17" t="s">
-        <x:v>345</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="L17" t="n">
-        <x:v>8.19</x:v>
+        <x:v>3.44</x:v>
+      </x:c>
+      <x:c r="M17" t="n">
+        <x:v>45.64</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="s">
-        <x:v>346</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>347</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>348</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D18"/>
       <x:c r="E18" t="n">
-        <x:v>2.190</x:v>
+        <x:v>0.988</x:v>
       </x:c>
       <x:c r="F18" t="n">
-        <x:v>2.190</x:v>
+        <x:v>1.050</x:v>
       </x:c>
       <x:c r="G18" t="n">
-        <x:v>2.102</x:v>
+        <x:v>1.223</x:v>
       </x:c>
       <x:c r="H18" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="I18" t="s">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="J18" t="s">
-        <x:v>351</x:v>
-      </x:c>
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="I18"/>
+      <x:c r="J18"/>
       <x:c r="K18" t="s">
-        <x:v>352</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="L18" t="n">
-        <x:v>8.08</x:v>
+        <x:v>3.27</x:v>
+      </x:c>
+      <x:c r="M18" t="n">
+        <x:v>47.42</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="s">
-        <x:v>353</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>354</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>355</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D19"/>
       <x:c r="E19" t="n">
+        <x:v>0.547</x:v>
+      </x:c>
+      <x:c r="F19" t="n">
         <x:v>1.820</x:v>
       </x:c>
-      <x:c r="F19" t="n">
-        <x:v>2.020</x:v>
-      </x:c>
       <x:c r="G19" t="n">
-        <x:v>2.008</x:v>
+        <x:v>1.152</x:v>
       </x:c>
       <x:c r="H19" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="I19" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="J19" t="s">
-        <x:v>358</x:v>
-      </x:c>
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="I19"/>
+      <x:c r="J19"/>
       <x:c r="K19" t="s">
-        <x:v>359</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="L19" t="n">
-        <x:v>7.74</x:v>
+        <x:v>3.13</x:v>
+      </x:c>
+      <x:c r="M19" t="n">
+        <x:v>55.81</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="s">
-        <x:v>360</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>361</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>362</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D20"/>
       <x:c r="E20" t="n">
-        <x:v>2.060</x:v>
+        <x:v>0.891</x:v>
       </x:c>
       <x:c r="F20" t="n">
-        <x:v>1.970</x:v>
+        <x:v>0.950</x:v>
       </x:c>
       <x:c r="G20" t="n">
-        <x:v>1.934</x:v>
+        <x:v>0.871</x:v>
       </x:c>
       <x:c r="H20" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="I20" t="n">
-        <x:v>1.910</x:v>
-      </x:c>
-      <x:c r="J20" t="s">
-        <x:v>364</x:v>
-      </x:c>
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="I20"/>
+      <x:c r="J20"/>
       <x:c r="K20" t="s">
-        <x:v>365</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="L20" t="n">
-        <x:v>7.76</x:v>
+        <x:v>3.28</x:v>
+      </x:c>
+      <x:c r="M20" t="n">
+        <x:v>63.86</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="s">
-        <x:v>366</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>367</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>368</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D21"/>
       <x:c r="E21" t="n">
-        <x:v>2.010</x:v>
+        <x:v>0.849</x:v>
       </x:c>
       <x:c r="F21" t="n">
-        <x:v>1.900</x:v>
+        <x:v>1.600</x:v>
       </x:c>
       <x:c r="G21" t="n">
-        <x:v>1.863</x:v>
+        <x:v>0.964</x:v>
       </x:c>
       <x:c r="H21" t="s">
-        <x:v>369</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="I21"/>
       <x:c r="J21"/>
       <x:c r="K21" t="s">
-        <x:v>370</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="L21" t="n">
-        <x:v>7.20</x:v>
+        <x:v>2.81</x:v>
+      </x:c>
+      <x:c r="M21" t="n">
+        <x:v>81.65</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="s">
-        <x:v>371</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>372</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>373</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D22"/>
       <x:c r="E22" t="n">
-        <x:v>1.850</x:v>
+        <x:v>0.840</x:v>
       </x:c>
       <x:c r="F22" t="n">
-        <x:v>1.780</x:v>
+        <x:v>0.730</x:v>
       </x:c>
       <x:c r="G22" t="n">
-        <x:v>1.721</x:v>
+        <x:v>0.671</x:v>
       </x:c>
       <x:c r="H22" t="s">
-        <x:v>374</x:v>
-      </x:c>
-      <x:c r="I22" t="s">
-        <x:v>375</x:v>
-      </x:c>
-      <x:c r="J22" t="s">
-        <x:v>376</x:v>
-      </x:c>
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="I22"/>
+      <x:c r="J22"/>
       <x:c r="K22" t="s">
-        <x:v>377</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="L22" t="n">
-        <x:v>6.99</x:v>
+        <x:v>2.68</x:v>
+      </x:c>
+      <x:c r="M22" t="n">
+        <x:v>69.68</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="s">
-        <x:v>378</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>379</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>380</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D23"/>
       <x:c r="E23" t="n">
-        <x:v>1.840</x:v>
+        <x:v>0.700</x:v>
       </x:c>
       <x:c r="F23" t="n">
-        <x:v>1.690</x:v>
+        <x:v>0.759</x:v>
       </x:c>
       <x:c r="G23" t="n">
-        <x:v>1.644</x:v>
+        <x:v>0.551</x:v>
       </x:c>
       <x:c r="H23" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="I23" t="s">
-        <x:v>382</x:v>
-      </x:c>
-      <x:c r="J23" t="s">
-        <x:v>383</x:v>
-      </x:c>
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="I23"/>
+      <x:c r="J23"/>
       <x:c r="K23" t="s">
-        <x:v>384</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="L23" t="n">
-        <x:v>6.72</x:v>
+        <x:v>2.35</x:v>
+      </x:c>
+      <x:c r="M23" t="n">
+        <x:v>71.67</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="s">
-        <x:v>385</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>386</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>387</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D24"/>
       <x:c r="E24" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.426</x:v>
       </x:c>
       <x:c r="F24" t="n">
-        <x:v>1.640</x:v>
+        <x:v>0.436</x:v>
       </x:c>
       <x:c r="G24" t="n">
-        <x:v>1.611</x:v>
+        <x:v>0.621</x:v>
       </x:c>
       <x:c r="H24" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="I24" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="J24" t="s">
-        <x:v>364</x:v>
-      </x:c>
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="I24"/>
+      <x:c r="J24"/>
       <x:c r="K24" t="s">
-        <x:v>390</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="L24" t="n">
-        <x:v>6.59</x:v>
+        <x:v>2.30</x:v>
+      </x:c>
+      <x:c r="M24" t="n">
+        <x:v>62.77</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="s">
-        <x:v>391</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>392</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>393</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D25"/>
       <x:c r="E25" t="n">
-        <x:v>1.800</x:v>
+        <x:v>0.714</x:v>
       </x:c>
       <x:c r="F25" t="n">
-        <x:v>1.650</x:v>
+        <x:v>0.712</x:v>
       </x:c>
       <x:c r="G25" t="n">
-        <x:v>1.615</x:v>
+        <x:v>0.604</x:v>
       </x:c>
       <x:c r="H25" t="s">
-        <x:v>394</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I25"/>
       <x:c r="J25"/>
       <x:c r="K25" t="s">
-        <x:v>395</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="L25" t="n">
-        <x:v>6.46</x:v>
+        <x:v>2.20</x:v>
+      </x:c>
+      <x:c r="M25" t="n">
+        <x:v>57.59</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="s">
-        <x:v>396</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>397</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>398</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D26"/>
       <x:c r="E26" t="n">
-        <x:v>1.580</x:v>
+        <x:v>0.512</x:v>
       </x:c>
       <x:c r="F26" t="n">
-        <x:v>1.570</x:v>
+        <x:v>0.518</x:v>
       </x:c>
       <x:c r="G26" t="n">
-        <x:v>1.539</x:v>
+        <x:v>0.536</x:v>
       </x:c>
       <x:c r="H26" t="s">
-        <x:v>399</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="I26"/>
       <x:c r="J26"/>
       <x:c r="K26" t="s">
-        <x:v>400</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="L26" t="n">
-        <x:v>6.34</x:v>
+        <x:v>2.05</x:v>
+      </x:c>
+      <x:c r="M26" t="n">
+        <x:v>56.56</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="s">
-        <x:v>401</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>402</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>403</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D27"/>
       <x:c r="E27" t="n">
-        <x:v>1.710</x:v>
+        <x:v>0.648</x:v>
       </x:c>
       <x:c r="F27" t="n">
-        <x:v>1.590</x:v>
+        <x:v>0.667</x:v>
       </x:c>
       <x:c r="G27" t="n">
-        <x:v>1.549</x:v>
+        <x:v>0.584</x:v>
       </x:c>
       <x:c r="H27" t="s">
-        <x:v>404</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="I27"/>
       <x:c r="J27"/>
       <x:c r="K27" t="s">
-        <x:v>405</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="L27" t="n">
-        <x:v>6.48</x:v>
+        <x:v>2.21</x:v>
+      </x:c>
+      <x:c r="M27" t="n">
+        <x:v>51.89</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="s">
-        <x:v>406</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>407</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>408</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D28"/>
       <x:c r="E28" t="n">
-        <x:v>1.370</x:v>
+        <x:v>0.324</x:v>
       </x:c>
       <x:c r="F28" t="n">
-        <x:v>1.620</x:v>
+        <x:v>0.318</x:v>
       </x:c>
       <x:c r="G28" t="n">
-        <x:v>1.597</x:v>
+        <x:v>0.597</x:v>
       </x:c>
       <x:c r="H28" t="s">
-        <x:v>409</x:v>
-      </x:c>
-      <x:c r="I28" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="J28" t="s">
-        <x:v>410</x:v>
-      </x:c>
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="I28"/>
+      <x:c r="J28"/>
       <x:c r="K28" t="s">
-        <x:v>411</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="L28" t="n">
-        <x:v>6.34</x:v>
+        <x:v>2.09</x:v>
+      </x:c>
+      <x:c r="M28" t="n">
+        <x:v>49.30</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="s">
-        <x:v>412</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>413</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>414</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D29"/>
       <x:c r="E29" t="n">
-        <x:v>1.680</x:v>
+        <x:v>0.567</x:v>
       </x:c>
       <x:c r="F29" t="n">
-        <x:v>1.680</x:v>
+        <x:v>0.590</x:v>
       </x:c>
       <x:c r="G29" t="n">
-        <x:v>1.636</x:v>
+        <x:v>0.675</x:v>
       </x:c>
       <x:c r="H29" t="s">
-        <x:v>415</x:v>
-      </x:c>
-      <x:c r="I29" t="s">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="J29" t="s">
-        <x:v>417</x:v>
-      </x:c>
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="I29"/>
+      <x:c r="J29"/>
       <x:c r="K29" t="s">
-        <x:v>418</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="L29" t="n">
-        <x:v>6.55</x:v>
+        <x:v>2.23</x:v>
+      </x:c>
+      <x:c r="M29" t="n">
+        <x:v>59.13</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="s">
-        <x:v>419</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>420</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>421</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D30"/>
       <x:c r="E30" t="n">
-        <x:v>1.720</x:v>
+        <x:v>0.673</x:v>
       </x:c>
       <x:c r="F30" t="n">
-        <x:v>1.720</x:v>
+        <x:v>0.693</x:v>
       </x:c>
       <x:c r="G30" t="n">
-        <x:v>1.551</x:v>
+        <x:v>0.558</x:v>
       </x:c>
       <x:c r="H30" t="s">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="I30" t="s">
-        <x:v>423</x:v>
-      </x:c>
-      <x:c r="J30" t="s">
-        <x:v>424</x:v>
-      </x:c>
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="I30"/>
+      <x:c r="J30"/>
       <x:c r="K30" t="s">
-        <x:v>425</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="L30" t="n">
-        <x:v>6.42</x:v>
+        <x:v>2.18</x:v>
+      </x:c>
+      <x:c r="M30" t="n">
+        <x:v>59.64</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="s">
-        <x:v>426</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>427</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>428</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D31"/>
       <x:c r="E31" t="n">
-        <x:v>1.570</x:v>
+        <x:v>0.530</x:v>
       </x:c>
       <x:c r="F31" t="n">
-        <x:v>1.570</x:v>
+        <x:v>0.545</x:v>
       </x:c>
       <x:c r="G31" t="n">
-        <x:v>1.530</x:v>
+        <x:v>0.520</x:v>
       </x:c>
       <x:c r="H31" t="s">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="I31" t="s">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="J31" t="s">
-        <x:v>431</x:v>
-      </x:c>
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="I31"/>
+      <x:c r="J31"/>
       <x:c r="K31" t="s">
-        <x:v>432</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="L31" t="n">
-        <x:v>6.20</x:v>
+        <x:v>1.97</x:v>
+      </x:c>
+      <x:c r="M31" t="n">
+        <x:v>59.78</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="s">
-        <x:v>433</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>434</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>435</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D32"/>
       <x:c r="E32" t="n">
-        <x:v>1.580</x:v>
+        <x:v>0.459</x:v>
       </x:c>
       <x:c r="F32" t="n">
-        <x:v>1.580</x:v>
+        <x:v>0.475</x:v>
       </x:c>
       <x:c r="G32" t="n">
-        <x:v>1.512</x:v>
+        <x:v>0.483</x:v>
       </x:c>
       <x:c r="H32" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="I32" t="s">
-        <x:v>437</x:v>
-      </x:c>
-      <x:c r="J32" t="s">
-        <x:v>438</x:v>
-      </x:c>
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I32"/>
+      <x:c r="J32"/>
       <x:c r="K32" t="s">
-        <x:v>439</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="L32" t="n">
-        <x:v>6.18</x:v>
+        <x:v>1.95</x:v>
+      </x:c>
+      <x:c r="M32" t="n">
+        <x:v>56.07</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="s">
-        <x:v>440</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>441</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>442</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D33"/>
       <x:c r="E33" t="n">
-        <x:v>1.550</x:v>
+        <x:v>0.521</x:v>
       </x:c>
       <x:c r="F33" t="n">
-        <x:v>1.550</x:v>
+        <x:v>0.517</x:v>
       </x:c>
       <x:c r="G33" t="n">
-        <x:v>1.543</x:v>
+        <x:v>0.493</x:v>
       </x:c>
       <x:c r="H33" t="s">
-        <x:v>443</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="I33"/>
       <x:c r="J33"/>
       <x:c r="K33" t="s">
-        <x:v>444</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="L33" t="n">
-        <x:v>6.04</x:v>
+        <x:v>1.94</x:v>
+      </x:c>
+      <x:c r="M33" t="n">
+        <x:v>49.33</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="s">
-        <x:v>445</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>446</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>447</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D34"/>
       <x:c r="E34" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.457</x:v>
       </x:c>
       <x:c r="F34" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.470</x:v>
       </x:c>
       <x:c r="G34" t="n">
-        <x:v>1.503</x:v>
+        <x:v>0.388</x:v>
       </x:c>
       <x:c r="H34" t="s">
-        <x:v>448</x:v>
-      </x:c>
-      <x:c r="I34" t="s">
-        <x:v>449</x:v>
-      </x:c>
-      <x:c r="J34" t="s">
-        <x:v>291</x:v>
-      </x:c>
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="I34"/>
+      <x:c r="J34"/>
       <x:c r="K34" t="s">
-        <x:v>450</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="L34" t="n">
-        <x:v>5.99</x:v>
+        <x:v>1.94</x:v>
+      </x:c>
+      <x:c r="M34" t="n">
+        <x:v>51.64</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="s">
-        <x:v>451</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>452</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>453</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D35"/>
       <x:c r="E35" t="n">
-        <x:v>1.550</x:v>
+        <x:v>0.512</x:v>
       </x:c>
       <x:c r="F35" t="n">
-        <x:v>1.550</x:v>
+        <x:v>0.527</x:v>
       </x:c>
       <x:c r="G35" t="n">
-        <x:v>1.484</x:v>
+        <x:v>0.463</x:v>
       </x:c>
       <x:c r="H35" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="I35" t="s">
-        <x:v>455</x:v>
-      </x:c>
-      <x:c r="J35" t="s">
-        <x:v>456</x:v>
-      </x:c>
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="I35"/>
+      <x:c r="J35"/>
       <x:c r="K35" t="s">
-        <x:v>457</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="L35" t="n">
-        <x:v>5.99</x:v>
+        <x:v>2.03</x:v>
+      </x:c>
+      <x:c r="M35" t="n">
+        <x:v>49.59</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="s">
-        <x:v>458</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>459</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>460</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D36"/>
       <x:c r="E36" t="n">
-        <x:v>1.440</x:v>
+        <x:v>0.447</x:v>
       </x:c>
       <x:c r="F36" t="n">
-        <x:v>1.440</x:v>
+        <x:v>0.454</x:v>
       </x:c>
       <x:c r="G36" t="n">
-        <x:v>1.457</x:v>
+        <x:v>0.450</x:v>
       </x:c>
       <x:c r="H36" t="s">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="I36" t="s">
-        <x:v>462</x:v>
-      </x:c>
-      <x:c r="J36" t="s">
-        <x:v>463</x:v>
-      </x:c>
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="I36"/>
+      <x:c r="J36"/>
       <x:c r="K36" t="s">
-        <x:v>464</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="L36" t="n">
-        <x:v>5.92</x:v>
+        <x:v>1.97</x:v>
+      </x:c>
+      <x:c r="M36" t="n">
+        <x:v>46.31</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="s">
-        <x:v>465</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>466</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>467</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D37"/>
       <x:c r="E37" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.527</x:v>
       </x:c>
       <x:c r="F37" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.563</x:v>
       </x:c>
       <x:c r="G37" t="n">
-        <x:v>1.477</x:v>
+        <x:v>0.470</x:v>
       </x:c>
       <x:c r="H37" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="I37" t="s">
-        <x:v>468</x:v>
-      </x:c>
-      <x:c r="J37" t="s">
-        <x:v>469</x:v>
-      </x:c>
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="I37"/>
+      <x:c r="J37"/>
       <x:c r="K37" t="s">
-        <x:v>470</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="L37" t="n">
-        <x:v>5.94</x:v>
+        <x:v>1.97</x:v>
+      </x:c>
+      <x:c r="M37" t="n">
+        <x:v>51.05</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="s">
-        <x:v>471</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>472</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>473</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D38"/>
       <x:c r="E38" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.544</x:v>
       </x:c>
       <x:c r="F38" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.508</x:v>
       </x:c>
       <x:c r="G38" t="n">
-        <x:v>1.466</x:v>
+        <x:v>0.410</x:v>
       </x:c>
       <x:c r="H38" t="s">
-        <x:v>474</x:v>
-      </x:c>
-      <x:c r="I38" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="J38" t="s">
-        <x:v>476</x:v>
-      </x:c>
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="I38"/>
+      <x:c r="J38"/>
       <x:c r="K38" t="s">
-        <x:v>477</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="L38" t="n">
-        <x:v>5.57</x:v>
+        <x:v>1.94</x:v>
+      </x:c>
+      <x:c r="M38" t="n">
+        <x:v>55.09</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="s">
-        <x:v>478</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>479</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>480</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D39"/>
       <x:c r="E39" t="n">
-        <x:v>1.480</x:v>
+        <x:v>0.450</x:v>
       </x:c>
       <x:c r="F39" t="n">
-        <x:v>1.480</x:v>
+        <x:v>0.434</x:v>
       </x:c>
       <x:c r="G39" t="n">
-        <x:v>1.440</x:v>
+        <x:v>0.333</x:v>
       </x:c>
       <x:c r="H39" t="s">
-        <x:v>481</x:v>
-      </x:c>
-      <x:c r="I39" t="s">
-        <x:v>482</x:v>
-      </x:c>
-      <x:c r="J39" t="s">
-        <x:v>483</x:v>
-      </x:c>
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="I39"/>
+      <x:c r="J39"/>
       <x:c r="K39" t="s">
-        <x:v>484</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="L39" t="n">
-        <x:v>5.54</x:v>
+        <x:v>1.93</x:v>
+      </x:c>
+      <x:c r="M39" t="n">
+        <x:v>54.60</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="s">
-        <x:v>485</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>486</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>487</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D40"/>
       <x:c r="E40" t="n">
-        <x:v>1.460</x:v>
+        <x:v>0.445</x:v>
       </x:c>
       <x:c r="F40" t="n">
-        <x:v>1.460</x:v>
+        <x:v>0.400</x:v>
       </x:c>
       <x:c r="G40" t="n">
-        <x:v>1.428</x:v>
+        <x:v>0.582</x:v>
       </x:c>
       <x:c r="H40" t="s">
-        <x:v>488</x:v>
-      </x:c>
-      <x:c r="I40" t="s">
-        <x:v>489</x:v>
-      </x:c>
-      <x:c r="J40" t="s">
-        <x:v>351</x:v>
-      </x:c>
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="I40"/>
+      <x:c r="J40"/>
       <x:c r="K40" t="s">
-        <x:v>490</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="L40" t="n">
-        <x:v>5.60</x:v>
+        <x:v>2.05</x:v>
+      </x:c>
+      <x:c r="M40" t="n">
+        <x:v>49.63</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="s">
-        <x:v>491</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>492</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>493</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D41"/>
       <x:c r="E41" t="n">
-        <x:v>1.130</x:v>
+        <x:v>0.501</x:v>
       </x:c>
       <x:c r="F41" t="n">
-        <x:v>1.130</x:v>
+        <x:v>0.504</x:v>
       </x:c>
       <x:c r="G41" t="n">
-        <x:v>1.484</x:v>
+        <x:v>0.710</x:v>
       </x:c>
       <x:c r="H41" t="s">
-        <x:v>494</x:v>
-      </x:c>
-      <x:c r="I41" t="s">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="J41" t="s">
-        <x:v>496</x:v>
-      </x:c>
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="I41"/>
+      <x:c r="J41"/>
       <x:c r="K41" t="s">
-        <x:v>497</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="L41" t="n">
-        <x:v>5.64</x:v>
+        <x:v>2.17</x:v>
+      </x:c>
+      <x:c r="M41" t="n">
+        <x:v>45.12</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="s">
-        <x:v>498</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>499</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>500</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D42"/>
       <x:c r="E42" t="n">
-        <x:v>1.470</x:v>
+        <x:v>0.538</x:v>
       </x:c>
       <x:c r="F42" t="n">
-        <x:v>1.490</x:v>
+        <x:v>0.538</x:v>
       </x:c>
       <x:c r="G42" t="n">
-        <x:v>1.489</x:v>
+        <x:v>0.706</x:v>
       </x:c>
       <x:c r="H42" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="I42" t="s">
-        <x:v>502</x:v>
-      </x:c>
-      <x:c r="J42" t="s">
-        <x:v>503</x:v>
-      </x:c>
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="I42"/>
+      <x:c r="J42"/>
       <x:c r="K42" t="s">
-        <x:v>504</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="L42" t="n">
-        <x:v>6.00</x:v>
+        <x:v>2.24</x:v>
+      </x:c>
+      <x:c r="M42" t="n">
+        <x:v>41.96</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="s">
-        <x:v>505</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>506</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>507</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D43"/>
       <x:c r="E43" t="n">
-        <x:v>1.540</x:v>
+        <x:v>0.568</x:v>
       </x:c>
       <x:c r="F43" t="n">
-        <x:v>1.490</x:v>
+        <x:v>0.568</x:v>
       </x:c>
       <x:c r="G43" t="n">
-        <x:v>1.462</x:v>
+        <x:v>0.630</x:v>
       </x:c>
       <x:c r="H43" t="s">
-        <x:v>508</x:v>
-      </x:c>
-      <x:c r="I43" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="J43" t="s">
-        <x:v>509</x:v>
-      </x:c>
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="I43"/>
+      <x:c r="J43"/>
       <x:c r="K43" t="s">
-        <x:v>510</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="L43" t="n">
-        <x:v>5.97</x:v>
+        <x:v>2.20</x:v>
+      </x:c>
+      <x:c r="M43" t="n">
+        <x:v>48.36</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="s">
-        <x:v>511</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>512</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>513</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D44"/>
       <x:c r="E44" t="n">
-        <x:v>1.500</x:v>
+        <x:v>0.558</x:v>
       </x:c>
       <x:c r="F44" t="n">
-        <x:v>1.440</x:v>
+        <x:v>0.554</x:v>
       </x:c>
       <x:c r="G44" t="n">
-        <x:v>1.411</x:v>
+        <x:v>0.577</x:v>
       </x:c>
       <x:c r="H44" t="s">
-        <x:v>514</x:v>
-      </x:c>
-      <x:c r="I44" t="s">
-        <x:v>515</x:v>
-      </x:c>
-      <x:c r="J44" t="s">
-        <x:v>516</x:v>
-      </x:c>
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="I44"/>
+      <x:c r="J44"/>
       <x:c r="K44" t="s">
-        <x:v>517</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="L44" t="n">
-        <x:v>5.84</x:v>
+        <x:v>2.03</x:v>
+      </x:c>
+      <x:c r="M44" t="n">
+        <x:v>50.35</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="s">
-        <x:v>518</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>519</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>520</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D45"/>
       <x:c r="E45" t="n">
-        <x:v>1.490</x:v>
+        <x:v>0.576</x:v>
       </x:c>
       <x:c r="F45" t="n">
-        <x:v>1.450</x:v>
+        <x:v>0.573</x:v>
       </x:c>
       <x:c r="G45" t="n">
-        <x:v>1.400</x:v>
+        <x:v>0.660</x:v>
       </x:c>
       <x:c r="H45" t="s">
-        <x:v>521</x:v>
-      </x:c>
-      <x:c r="I45" t="s">
-        <x:v>522</x:v>
-      </x:c>
-      <x:c r="J45" t="s">
-        <x:v>523</x:v>
-      </x:c>
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="I45"/>
+      <x:c r="J45"/>
       <x:c r="K45" t="s">
-        <x:v>524</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="L45" t="n">
-        <x:v>5.68</x:v>
+        <x:v>1.93</x:v>
+      </x:c>
+      <x:c r="M45" t="n">
+        <x:v>47.05</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="s">
-        <x:v>525</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>526</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>527</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="D46"/>
       <x:c r="E46" t="n">
-        <x:v>1.440</x:v>
+        <x:v>0.494</x:v>
       </x:c>
       <x:c r="F46" t="n">
-        <x:v>1.380</x:v>
+        <x:v>1.220</x:v>
       </x:c>
       <x:c r="G46" t="n">
-        <x:v>1.330</x:v>
+        <x:v>0.656</x:v>
       </x:c>
       <x:c r="H46" t="s">
-        <x:v>528</x:v>
-      </x:c>
-      <x:c r="I46" t="s">
-        <x:v>529</x:v>
-      </x:c>
-      <x:c r="J46" t="s">
-        <x:v>530</x:v>
-      </x:c>
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="I46"/>
+      <x:c r="J46"/>
       <x:c r="K46" t="s">
-        <x:v>531</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="L46" t="n">
-        <x:v>5.54</x:v>
+        <x:v>1.83</x:v>
+      </x:c>
+      <x:c r="M46" t="n">
+        <x:v>44.74</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="s">
-        <x:v>532</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>533</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>534</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="D47"/>
       <x:c r="E47" t="n">
-        <x:v>1.412</x:v>
+        <x:v>0.405</x:v>
       </x:c>
       <x:c r="F47" t="n">
-        <x:v>1.360</x:v>
+        <x:v>1.720</x:v>
       </x:c>
       <x:c r="G47" t="n">
-        <x:v>1.298</x:v>
+        <x:v>0.520</x:v>
       </x:c>
       <x:c r="H47" t="s">
-        <x:v>535</x:v>
-      </x:c>
-      <x:c r="I47" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="J47" t="s">
-        <x:v>537</x:v>
-      </x:c>
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="I47"/>
+      <x:c r="J47"/>
       <x:c r="K47" t="s">
-        <x:v>538</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="L47" t="n">
-        <x:v>5.41</x:v>
+        <x:v>2.28</x:v>
+      </x:c>
+      <x:c r="M47" t="n">
+        <x:v>31.93</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="s">
-        <x:v>539</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>540</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>541</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D48"/>
       <x:c r="E48" t="n">
-        <x:v>1.340</x:v>
+        <x:v>0.458</x:v>
       </x:c>
       <x:c r="F48" t="n">
-        <x:v>1.320</x:v>
+        <x:v>0.810</x:v>
       </x:c>
       <x:c r="G48" t="n">
-        <x:v>1.300</x:v>
+        <x:v>0.508</x:v>
       </x:c>
       <x:c r="H48" t="s">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="I48" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="J48" t="s">
-        <x:v>543</x:v>
-      </x:c>
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="I48"/>
+      <x:c r="J48"/>
       <x:c r="K48" t="s">
-        <x:v>544</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="L48"/>
+      <x:c r="M48"/>
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="s">
-        <x:v>545</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>546</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>547</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D49"/>
       <x:c r="E49" t="n">
-        <x:v>1.351</x:v>
+        <x:v>0.476</x:v>
       </x:c>
       <x:c r="F49" t="n">
-        <x:v>1.320</x:v>
+        <x:v>0.473</x:v>
       </x:c>
       <x:c r="G49" t="n">
-        <x:v>1.281</x:v>
+        <x:v>0.463</x:v>
       </x:c>
       <x:c r="H49" t="s">
-        <x:v>548</x:v>
-      </x:c>
-      <x:c r="I49" t="s">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c r="J49" t="s">
-        <x:v>550</x:v>
-      </x:c>
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="I49"/>
+      <x:c r="J49"/>
       <x:c r="K49" t="s">
-        <x:v>551</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="L49"/>
+      <x:c r="M49"/>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="s">
-        <x:v>552</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>553</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>554</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D50"/>
       <x:c r="E50" t="n">
-        <x:v>1.310</x:v>
+        <x:v>0.936</x:v>
       </x:c>
       <x:c r="F50" t="n">
-        <x:v>1.280</x:v>
+        <x:v>0.922</x:v>
       </x:c>
       <x:c r="G50" t="n">
-        <x:v>1.210</x:v>
+        <x:v>0.467</x:v>
       </x:c>
       <x:c r="H50" t="s">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="I50" t="s">
-        <x:v>556</x:v>
-      </x:c>
-      <x:c r="J50" t="s">
-        <x:v>555</x:v>
-      </x:c>
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="I50"/>
+      <x:c r="J50"/>
       <x:c r="K50" t="s">
-        <x:v>557</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="L50"/>
+      <x:c r="M50"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="$A$2:$G$2"/>
   </x:mergeCells>
 </x:worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ECA365C61AAD7A42921C6116603392FA" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33f05de3039d4f94e6a2cba42c531c65">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3343e94-45a5-4b9d-bad3-7cbbfc814e3a" xmlns:ns3="033ebd95-40ba-4b31-a0c0-50fff6a5a876" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4e77dca34a81fa0e05df09a9c5dfd92" ns2:_="" ns3:_="">
-    <xsd:import namespace="c3343e94-45a5-4b9d-bad3-7cbbfc814e3a"/>
-    <xsd:import namespace="033ebd95-40ba-4b31-a0c0-50fff6a5a876"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c3343e94-45a5-4b9d-bad3-7cbbfc814e3a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="514865d5-1255-42f5-9c2f-3f9110ef6e24" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="033ebd95-40ba-4b31-a0c0-50fff6a5a876" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ea691e65-81ea-4213-a474-91ed770d4e9a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="033ebd95-40ba-4b31-a0c0-50fff6a5a876">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="033ebd95-40ba-4b31-a0c0-50fff6a5a876" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3343e94-45a5-4b9d-bad3-7cbbfc814e3a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4637C55D-B78B-4436-B34D-3C0CEDD36C3F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF57B97-320D-46AD-9935-10D000B58AE9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4094CB45-60E2-41A6-87C4-C595220B5E50}"/>
 </file>